--- a/deadline.xlsx
+++ b/deadline.xlsx
@@ -20,15 +20,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t xml:space="preserve">text_message </t>
-  </si>
-  <si>
-    <t xml:space="preserve">deadline_date </t>
-  </si>
-  <si>
-    <t xml:space="preserve">hello reminder email </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t xml:space="preserve">text_message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deadline_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test message</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2025-06-10 14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:25:00</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -39,11 +58,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -64,6 +84,19 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -108,16 +141,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -138,33 +179,46 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.93"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>45813.9375</v>
-      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
